--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3718.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3718.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.352584154816092</v>
+        <v>1.538860678672791</v>
       </c>
       <c r="B1">
-        <v>2.84054672911595</v>
+        <v>3.791602611541748</v>
       </c>
       <c r="C1">
-        <v>6.459510057587298</v>
+        <v>3.311583757400513</v>
       </c>
       <c r="D1">
-        <v>1.985008175595578</v>
+        <v>1.474736571311951</v>
       </c>
       <c r="E1">
-        <v>1.032357555476763</v>
+        <v>1.012883305549622</v>
       </c>
     </row>
   </sheetData>
